--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.75363751992066</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47403345227241</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.455910834944</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>20.95736492508901</v>
+        <v>7083.519888241757</v>
       </c>
       <c r="O2" t="n">
-        <v>30.02549178838816</v>
+        <v>6997.091525493762</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.30673521844466</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58.06505722185842</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.1487638471664</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>356.418250515259</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>56.12842812216224</v>
+        <v>9040.000118222546</v>
       </c>
       <c r="O2" t="n">
-        <v>60.2106916968099</v>
+        <v>9731.320038188689</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>13055.68800301272</v>
       </c>
       <c r="O2" t="n">
-        <v>112.180844107892</v>
+        <v>12867.93508263103</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>13173.73845336726</v>
       </c>
       <c r="O2" t="n">
-        <v>115.9660949622238</v>
+        <v>12867.93508263103</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>13625.07956842681</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1931455518706</v>
+        <v>14949.88392520632</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>13625.07956842681</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1931455518706</v>
+        <v>14949.88392520632</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>761.3324401604237</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14112.34088619919</v>
+        <v>29740.57209542279</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19581.11646534571</v>
+        <v>14200.72657838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20181.23644119102</v>
+        <v>53380.29012525</v>
       </c>
       <c r="M2" t="n">
-        <v>6032.827579548</v>
+        <v>10658.387169815</v>
       </c>
       <c r="N2" t="n">
-        <v>6113.242367808118</v>
+        <v>7637.402481230281</v>
       </c>
       <c r="O2" t="n">
-        <v>3657.724896430585</v>
+        <v>7117.919615036673</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5184.211771486029</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3208.898512992542</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44213.14438429334</v>
+        <v>47193.8449614085</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31464.52130912129</v>
+        <v>23823.32840570365</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102452.8118059199</v>
+        <v>75872.38143273753</v>
       </c>
       <c r="M2" t="n">
-        <v>24455.35557938164</v>
+        <v>16509.210294786</v>
       </c>
       <c r="N2" t="n">
-        <v>18641.54292218823</v>
+        <v>9395.063137084702</v>
       </c>
       <c r="O2" t="n">
-        <v>8844.127147296884</v>
+        <v>8358.401204250757</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>1553.56866473945</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5378.646016954563</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>60525.83365072873</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>41536.04551959009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>75872.38143273753</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>22090.099315812</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13763.87675960632</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>12838.44160168211</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>1553.56866473945</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5378.646016954563</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>60525.83365072873</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>41536.04551959009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>75872.38143273753</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>22090.099315812</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13763.87675960632</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>12838.44160168211</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>1553.56866473945</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5378.646016954563</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>60525.83365072873</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>41536.04551959009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>75872.38143273753</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>22090.099315812</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13763.87675960632</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>12838.44160168211</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>1553.56866473945</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5378.646016954563</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>60525.83365072873</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>41536.04551959009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>75872.38143273753</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>22090.099315812</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13763.87675960632</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>12838.44160168211</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29740.57209542279</v>
+        <v>29751.026632348</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14200.72657838</v>
+        <v>14142.32226446746</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53380.29012525</v>
+        <v>53029.15429284</v>
       </c>
       <c r="M2" t="n">
-        <v>10658.387169815</v>
+        <v>10753.74970482998</v>
       </c>
       <c r="N2" t="n">
-        <v>7637.402481230281</v>
+        <v>7693.937482943782</v>
       </c>
       <c r="O2" t="n">
-        <v>7117.919615036673</v>
+        <v>7675.818959394448</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3208.898512992542</v>
+        <v>4344.13718011466</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47193.8449614085</v>
+        <v>57885.53306719843</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23823.32840570365</v>
+        <v>28931.73319407337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75872.38143273753</v>
+        <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>16509.210294786</v>
+        <v>20921.19698906325</v>
       </c>
       <c r="N2" t="n">
-        <v>9395.063137084702</v>
+        <v>10937.78653468269</v>
       </c>
       <c r="O2" t="n">
-        <v>8358.401204250757</v>
+        <v>9700.13305703022</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1553.56866473945</v>
+        <v>1611.798000541006</v>
       </c>
       <c r="B2" t="n">
-        <v>5378.646016954563</v>
+        <v>6181.041678721394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60525.83365072873</v>
+        <v>71251.17376592311</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41536.04551959009</v>
+        <v>45864.32315580232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75872.38143273753</v>
+        <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>22090.099315812</v>
+        <v>25662.01124739233</v>
       </c>
       <c r="N2" t="n">
-        <v>13763.87675960632</v>
+        <v>16047.23502266824</v>
       </c>
       <c r="O2" t="n">
-        <v>12838.44160168211</v>
+        <v>15180.5186820528</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1553.56866473945</v>
+        <v>1611.798000541006</v>
       </c>
       <c r="B2" t="n">
-        <v>5378.646016954563</v>
+        <v>6181.041678721394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60525.83365072873</v>
+        <v>71251.17376592311</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41536.04551959009</v>
+        <v>45864.32315580232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75872.38143273753</v>
+        <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>22090.099315812</v>
+        <v>25662.01124739233</v>
       </c>
       <c r="N2" t="n">
-        <v>13763.87675960632</v>
+        <v>16047.23502266824</v>
       </c>
       <c r="O2" t="n">
-        <v>12838.44160168211</v>
+        <v>15180.5186820528</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1553.56866473945</v>
+        <v>1611.798000541006</v>
       </c>
       <c r="B2" t="n">
-        <v>5378.646016954563</v>
+        <v>6181.041678721394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60525.83365072873</v>
+        <v>71251.17376592311</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41536.04551959009</v>
+        <v>45864.32315580232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75872.38143273753</v>
+        <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>22090.099315812</v>
+        <v>25662.01124739233</v>
       </c>
       <c r="N2" t="n">
-        <v>13763.87675960632</v>
+        <v>16047.23502266824</v>
       </c>
       <c r="O2" t="n">
-        <v>12838.44160168211</v>
+        <v>15180.5186820528</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1553.56866473945</v>
+        <v>1611.798000541006</v>
       </c>
       <c r="B2" t="n">
-        <v>5378.646016954563</v>
+        <v>6181.041678721394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60525.83365072873</v>
+        <v>71251.17376592311</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661859</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41536.04551959009</v>
+        <v>45864.32315580232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75872.38143273753</v>
+        <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>22090.099315812</v>
+        <v>25662.01124739233</v>
       </c>
       <c r="N2" t="n">
-        <v>13763.87675960632</v>
+        <v>16047.23502266824</v>
       </c>
       <c r="O2" t="n">
-        <v>12838.44160168211</v>
+        <v>15180.5186820528</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7083.519888241757</v>
+        <v>7166.934239853319</v>
       </c>
       <c r="O2" t="n">
-        <v>6997.091525493762</v>
+        <v>6983.506508100742</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9040.000118222546</v>
+        <v>10610.95466116662</v>
       </c>
       <c r="O2" t="n">
-        <v>9731.320038188689</v>
+        <v>12070.09906536593</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13055.68800301272</v>
+        <v>15155.33304031695</v>
       </c>
       <c r="O2" t="n">
-        <v>12867.93508263103</v>
+        <v>14768.69820138149</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13173.73845336726</v>
+        <v>15260.17788384349</v>
       </c>
       <c r="O2" t="n">
-        <v>12867.93508263103</v>
+        <v>14768.69820138149</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13625.07956842681</v>
+        <v>15798.2207999018</v>
       </c>
       <c r="O2" t="n">
-        <v>14949.88392520632</v>
+        <v>17109.77519465316</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13625.07956842681</v>
+        <v>15798.2207999018</v>
       </c>
       <c r="O2" t="n">
-        <v>14949.88392520632</v>
+        <v>17109.77519465316</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>761.3324401604237</v>
+        <v>4847.480344639332</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48419.43198099986</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14112.34088619919</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8143.03807297402</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19581.11646534571</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20181.23644119102</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6032.827579548</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6113.242367808118</v>
+        <v>2364.220749601245</v>
       </c>
       <c r="O2" t="n">
-        <v>3657.724896430585</v>
+        <v>1995.500123052213</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5184.211771486029</v>
+        <v>10954.10266556656</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>190504.3831493785</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44213.14438429334</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15003.93955510948</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>31464.52130912129</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102452.8118059199</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24455.35557938164</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18641.54292218823</v>
+        <v>7620.052497061191</v>
       </c>
       <c r="O2" t="n">
-        <v>8844.127147296884</v>
+        <v>5737.493604453795</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>32631.03233207285</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279127.5477589683</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16370.20727282217</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664673</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>9653.778422756199</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>32631.03233207285</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279127.5477589683</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16370.20727282217</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664673</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>9653.778422756199</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>32631.03233207285</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279127.5477589683</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16370.20727282217</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664673</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>9653.778422756199</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9211.809805189721</v>
+        <v>32631.03233207285</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279127.5477589683</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102427.3689691313</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16370.20727282217</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664673</v>
       </c>
       <c r="I2" t="n">
-        <v>82258.48998081601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>179912.4641779626</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68157.71499201903</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29952.72320347004</v>
+        <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>25645.74558744211</v>
+        <v>9653.778422756199</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>21.75363751992066</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47403345227241</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>124.455910834944</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.95736492508901</v>
+        <v>2366.837285808575</v>
       </c>
       <c r="O2" t="n">
-        <v>30.02549178838816</v>
+        <v>1995.50012305223</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.30673521844466</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>58.06505722185842</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.1487638471664</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>356.418250515259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>56.12842812216224</v>
+        <v>7541.022925285812</v>
       </c>
       <c r="O2" t="n">
-        <v>60.2106916968099</v>
+        <v>6256.672442780481</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>12883.76677115856</v>
       </c>
       <c r="O2" t="n">
-        <v>112.180844107892</v>
+        <v>9262.016604815541</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>14041.61652360174</v>
       </c>
       <c r="O2" t="n">
-        <v>115.9660949622238</v>
+        <v>9262.016604815541</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>16872.73121247132</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1931455518706</v>
+        <v>10094.37971814901</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125.8772480402195</v>
+        <v>16872.73121247132</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1931455518706</v>
+        <v>10094.37971814901</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -532,7 +532,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>8143.03807297402</v>
+        <v>8143.038072974023</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>2364.220749601245</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.500123052213</v>
+        <v>1995.500123052212</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7620.052497061191</v>
+        <v>7620.052497061188</v>
       </c>
       <c r="O2" t="n">
-        <v>5737.493604453795</v>
+        <v>5737.493604453794</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16370.20727282217</v>
+        <v>16370.20727282218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664673</v>
+        <v>11593.76417664645</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>9653.778422756199</v>
+        <v>9653.778422756444</v>
       </c>
     </row>
   </sheetData>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16370.20727282217</v>
+        <v>16370.20727282218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664673</v>
+        <v>11593.76417664645</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>9653.778422756199</v>
+        <v>9653.778422756444</v>
       </c>
     </row>
   </sheetData>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16370.20727282217</v>
+        <v>16370.20727282218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664673</v>
+        <v>11593.76417664645</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>9653.778422756199</v>
+        <v>9653.778422756444</v>
       </c>
     </row>
   </sheetData>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16370.20727282217</v>
+        <v>16370.20727282218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664673</v>
+        <v>11593.76417664645</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>13261.31654727844</v>
       </c>
       <c r="O2" t="n">
-        <v>9653.778422756199</v>
+        <v>9653.778422756444</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29751.026632348</v>
+        <v>29751.02663234787</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14142.32226446746</v>
+        <v>14142.32226446749</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>10753.74970482998</v>
       </c>
       <c r="N2" t="n">
-        <v>7693.937482943782</v>
+        <v>7693.937482943549</v>
       </c>
       <c r="O2" t="n">
-        <v>7675.818959394448</v>
+        <v>7675.818959394492</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57885.53306719843</v>
+        <v>57885.53306719848</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>20921.19698906325</v>
+        <v>20921.19698906263</v>
       </c>
       <c r="N2" t="n">
-        <v>10937.78653468269</v>
+        <v>10937.7865346826</v>
       </c>
       <c r="O2" t="n">
-        <v>9700.13305703022</v>
+        <v>9700.133057030296</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1611.798000541006</v>
+        <v>1611.798000540979</v>
       </c>
       <c r="B2" t="n">
-        <v>6181.041678721394</v>
+        <v>6181.041678720941</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71251.17376592311</v>
+        <v>71251.17376592316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45864.32315580232</v>
+        <v>45864.32315580231</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>25662.01124739233</v>
+        <v>25662.0112473923</v>
       </c>
       <c r="N2" t="n">
-        <v>16047.23502266824</v>
+        <v>16047.23502266825</v>
       </c>
       <c r="O2" t="n">
-        <v>15180.5186820528</v>
+        <v>15180.51868205281</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1611.798000541006</v>
+        <v>1611.798000540979</v>
       </c>
       <c r="B2" t="n">
-        <v>6181.041678721394</v>
+        <v>6181.041678720941</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71251.17376592311</v>
+        <v>71251.17376592316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45864.32315580232</v>
+        <v>45864.32315580231</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>25662.01124739233</v>
+        <v>25662.0112473923</v>
       </c>
       <c r="N2" t="n">
-        <v>16047.23502266824</v>
+        <v>16047.23502266825</v>
       </c>
       <c r="O2" t="n">
-        <v>15180.5186820528</v>
+        <v>15180.51868205281</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1611.798000541006</v>
+        <v>1611.798000540979</v>
       </c>
       <c r="B2" t="n">
-        <v>6181.041678721394</v>
+        <v>6181.041678720941</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71251.17376592311</v>
+        <v>71251.17376592316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45864.32315580232</v>
+        <v>45864.32315580231</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>25662.01124739233</v>
+        <v>25662.0112473923</v>
       </c>
       <c r="N2" t="n">
-        <v>16047.23502266824</v>
+        <v>16047.23502266825</v>
       </c>
       <c r="O2" t="n">
-        <v>15180.5186820528</v>
+        <v>15180.51868205281</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1611.798000541006</v>
+        <v>1611.798000540979</v>
       </c>
       <c r="B2" t="n">
-        <v>6181.041678721394</v>
+        <v>6181.041678720941</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71251.17376592311</v>
+        <v>71251.17376592316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45864.32315580232</v>
+        <v>45864.32315580231</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>90998.45501306068</v>
       </c>
       <c r="M2" t="n">
-        <v>25662.01124739233</v>
+        <v>25662.0112473923</v>
       </c>
       <c r="N2" t="n">
-        <v>16047.23502266824</v>
+        <v>16047.23502266825</v>
       </c>
       <c r="O2" t="n">
-        <v>15180.5186820528</v>
+        <v>15180.51868205281</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_fix_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7166.934239853319</v>
+        <v>7166.934239853315</v>
       </c>
       <c r="O2" t="n">
-        <v>6983.506508100742</v>
+        <v>6983.506508100738</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10610.95466116662</v>
       </c>
       <c r="O2" t="n">
-        <v>12070.09906536593</v>
+        <v>12087.35057778078</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15155.33304031695</v>
+        <v>15142.51171457881</v>
       </c>
       <c r="O2" t="n">
-        <v>14768.69820138149</v>
+        <v>14769.59226956862</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15260.17788384349</v>
+        <v>15250.08311219208</v>
       </c>
       <c r="O2" t="n">
-        <v>14768.69820138149</v>
+        <v>14769.59226956862</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15798.2207999018</v>
+        <v>15797.38596726277</v>
       </c>
       <c r="O2" t="n">
-        <v>17109.77519465316</v>
+        <v>17110.66926284038</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15798.2207999018</v>
+        <v>15797.38596726277</v>
       </c>
       <c r="O2" t="n">
-        <v>17109.77519465316</v>
+        <v>17110.66926284038</v>
       </c>
     </row>
   </sheetData>
